--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,18 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="jacob"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Durham\,Design\L2-DESIGN\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F361591C-8293-4FE9-A252-CC60786FDA8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="27570" windowHeight="12210" tabRatio="500"/>
+    <workbookView xWindow="18315" yWindow="6195" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Gantt_Planned" sheetId="1" r:id="rId4"/>
-    <sheet name="Contacts" sheetId="2" r:id="rId5"/>
+    <sheet name="Gantt_Planned" sheetId="1" r:id="rId1"/>
+    <sheet name="Contacts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1574120984" val="973" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
       <pm:docPrefs xmlns:pm="smNativeData" id="1574120984" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
@@ -364,68 +378,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;£&quot;;\-#,##0\ &quot;£&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;£&quot;;[Red]\-#,##0\ &quot;£&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;£&quot;;\-#,##0.00\ &quot;£&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;£&quot;;[Red]\-#,##0.00\ &quot;£&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;£&quot;_-;\-* #,##0\ &quot;£&quot;_-;_-* &quot;-&quot;\ &quot;£&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _£_-;\-* #,##0\ _£_-;_-* &quot;-&quot;\ _£_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;£&quot;_-;\-* #,##0.00\ &quot;£&quot;_-;_-* &quot;-&quot;??\ &quot;£&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _£_-;\-* #,##0.00\ _£_-;_-* &quot;-&quot;??\ _£_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="D\-MMM"/>
-    <numFmt numFmtId="165" formatCode="DD\-MMM"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="d\-mmm"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1574120984" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Basic Roman" sz="200" lang="default"/>
-            <pm:ea face="Basic Roman" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
-      <name val="Basic Sans"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
+      <b/>
       <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1574120984" ulstyle="none" kern="1">
-            <pm:latin face="Basic Sans" sz="200" lang="default"/>
-            <pm:cs face="Basic Roman" sz="200" lang="default"/>
-            <pm:ea face="Basic Roman" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
+      <color rgb="FF6A6A6A"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b/>
-      <color rgb="FF6A6A6A"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1574120984" fgClr="6A6A6A" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
-            <pm:cs face="Basic Roman" sz="200" lang="default" weight="bold"/>
-            <pm:ea face="Basic Roman" sz="200" lang="default" weight="bold"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,369 +408,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1574120984" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
         <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1574120984" type="1" fgLvl="100" fgClr="00F3F3F3" bgLvl="0" bgClr="00F3F3F3"/>
-          </ext>
-        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD8D8D8"/>
         <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1574120984" type="1" fgLvl="100" fgClr="00D8D8D8" bgLvl="0" bgClr="00000000"/>
-          </ext>
-        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1574120984" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00FFFF00"/>
-          </ext>
-        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1574120984" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1574120984" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1574120984" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1574120984" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
-          </ext>
-        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD8D8D8"/>
         <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1574120984" type="1" fgLvl="100" fgClr="00D8D8D8" bgLvl="0" bgClr="00000000"/>
-          </ext>
-        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1574120984" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00FFFF00"/>
-          </ext>
-        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
         <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1574120984" type="1" fgLvl="100" fgClr="00F3F3F3" bgLvl="0" bgClr="00F3F3F3"/>
-          </ext>
-        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1574120984" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
-          </ext>
-        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD8D8D8"/>
         <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1574120984" type="1" fgLvl="100" fgClr="00D8D8D8" bgLvl="0" bgClr="00000000"/>
-          </ext>
-        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1574120984" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00FFFF00"/>
-          </ext>
-        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
         <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1574120984" type="1" fgLvl="100" fgClr="00F3F3F3" bgLvl="0" bgClr="00F3F3F3"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF919191"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1574120984" type="1" fgLvl="57" fgClr="00FFFFFF" bgLvl="43" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1574120984" type="1" fgLvl="85" fgClr="00FFFFFF" bgLvl="15" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1F1F1F"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1574120984" type="1" fgLvl="12" fgClr="00FFFFFF" bgLvl="88" bgClr="00000000"/>
-          </ext>
-        </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1574120984" type="1" fgLvl="95" fgClr="00FFFFFF" bgLvl="5" bgClr="00000000"/>
-          </ext>
-        </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="24">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -810,18 +555,8 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984">
-            <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -830,442 +565,180 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984">
-            <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984">
-            <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984">
-            <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984">
-            <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984">
-            <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984">
-            <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984">
-            <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984"/>
-        </ext>
-      </extLst>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984">
-            <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984">
-            <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984">
-            <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984">
-            <pm:line position="left" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984">
-            <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984">
-            <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984">
-            <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984">
-            <pm:line position="right" type="1" style="0" width="40" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1574120984"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
       <extLst>
         <ext uri="smNativeData">
@@ -1285,7 +758,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
       <extLst>
         <ext uri="smNativeData">
@@ -1293,11 +766,11 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="21" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
       <extLst>
         <ext uri="smNativeData">
@@ -1305,27 +778,34 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
     <ext uri="smNativeData">
       <pm:charStyles xmlns:pm="smNativeData" id="1574120984" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
@@ -1347,10 +827,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="D5D5D5"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="494949"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="EEECE1"/>
@@ -1597,86 +1077,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryRight="0" summaryBelow="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="13" defaultColWidth="14.423423" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.711712" customWidth="1"/>
-    <col min="2" max="20" width="4.423423" customWidth="1"/>
-    <col min="21" max="21" width="6.855856" customWidth="1"/>
-    <col min="23" max="23" width="33.567568" customWidth="1"/>
-    <col min="24" max="24" width="32.711712" customWidth="1"/>
-    <col min="25" max="25" width="33.567568" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="20" width="4.42578125" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" customWidth="1"/>
+    <col min="23" max="23" width="33.5703125" customWidth="1"/>
+    <col min="24" max="24" width="32.7109375" customWidth="1"/>
+    <col min="25" max="25" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="46.50" customHeight="1">
+    <row r="1" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="n">
+      <c r="B1" s="11">
         <v>43780</v>
       </c>
-      <c r="C1" s="11" t="n">
+      <c r="C1" s="11">
         <v>43787</v>
       </c>
-      <c r="D1" s="11" t="n">
+      <c r="D1" s="11">
         <v>43794</v>
       </c>
-      <c r="E1" s="11" t="n">
+      <c r="E1" s="11">
         <v>43801</v>
       </c>
-      <c r="F1" s="11" t="n">
+      <c r="F1" s="11">
         <v>43808</v>
       </c>
-      <c r="G1" s="20" t="n">
+      <c r="G1" s="20">
         <v>43815</v>
       </c>
-      <c r="H1" s="11" t="n">
+      <c r="H1" s="11">
         <v>43822</v>
       </c>
-      <c r="I1" s="11" t="n">
+      <c r="I1" s="11">
         <v>43829</v>
       </c>
-      <c r="J1" s="11" t="n">
+      <c r="J1" s="11">
         <v>43836</v>
       </c>
-      <c r="K1" s="11" t="n">
+      <c r="K1" s="11">
         <v>43843</v>
       </c>
-      <c r="L1" s="11" t="n">
+      <c r="L1" s="11">
         <v>43850</v>
       </c>
-      <c r="M1" s="11" t="n">
+      <c r="M1" s="11">
         <v>43857</v>
       </c>
-      <c r="N1" s="11" t="n">
+      <c r="N1" s="11">
         <v>43864</v>
       </c>
-      <c r="O1" s="11" t="n">
+      <c r="O1" s="11">
         <v>43871</v>
       </c>
-      <c r="P1" s="25" t="n">
+      <c r="P1" s="25">
         <v>43878</v>
       </c>
-      <c r="Q1" s="11" t="n">
+      <c r="Q1" s="11">
         <v>43885</v>
       </c>
-      <c r="R1" s="11" t="n">
+      <c r="R1" s="11">
         <v>43892</v>
       </c>
-      <c r="S1" s="11" t="n">
+      <c r="S1" s="11">
         <v>43899</v>
       </c>
-      <c r="T1" s="25" t="n">
+      <c r="T1" s="25">
         <v>43906</v>
       </c>
       <c r="U1" s="14" t="s">
@@ -1686,65 +1166,65 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="12.75" customHeight="1">
+    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="7">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="7">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="7">
         <v>5</v>
       </c>
-      <c r="G2" s="21" t="n">
+      <c r="G2" s="21">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="n">
+      <c r="H2" s="7">
         <v>7</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="7">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="n">
+      <c r="J2" s="7">
         <v>9</v>
       </c>
-      <c r="K2" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="L2" s="7" t="n">
+      <c r="K2" s="7">
+        <v>10</v>
+      </c>
+      <c r="L2" s="7">
         <v>11</v>
       </c>
-      <c r="M2" s="7" t="n">
+      <c r="M2" s="7">
         <v>12</v>
       </c>
-      <c r="N2" s="7" t="n">
+      <c r="N2" s="7">
         <v>13</v>
       </c>
-      <c r="O2" s="7" t="n">
+      <c r="O2" s="7">
         <v>14</v>
       </c>
-      <c r="P2" s="26" t="n">
+      <c r="P2" s="26">
         <v>15</v>
       </c>
-      <c r="Q2" s="7" t="n">
+      <c r="Q2" s="7">
         <v>16</v>
       </c>
-      <c r="R2" s="7" t="n">
+      <c r="R2" s="7">
         <v>17</v>
       </c>
-      <c r="S2" s="7" t="n">
+      <c r="S2" s="7">
         <v>18</v>
       </c>
-      <c r="T2" s="26" t="n">
+      <c r="T2" s="26">
         <v>19</v>
       </c>
       <c r="U2" s="12"/>
@@ -1761,97 +1241,97 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.50" customHeight="1">
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="9">
-        <f>SUM(B5:B44)</f>
+        <f t="shared" ref="B3:T3" si="0">SUM(B5:B44)</f>
         <v>63</v>
       </c>
       <c r="C3" s="9">
-        <f>SUM(C5:C44)</f>
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="D3" s="9">
-        <f>SUM(D5:D44)</f>
+        <f t="shared" si="0"/>
         <v>119</v>
       </c>
       <c r="E3" s="9">
-        <f>SUM(E5:E44)</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="F3" s="9">
-        <f>SUM(F5:F44)</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="G3" s="22">
-        <f>SUM(G5:G44)</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="H3" s="9">
-        <f>SUM(H5:H44)</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="I3" s="9">
-        <f>SUM(I5:I44)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="J3" s="9">
-        <f>SUM(J5:J44)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="K3" s="9">
-        <f>SUM(K5:K44)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="L3" s="9">
-        <f>SUM(L5:L44)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M3" s="9">
-        <f>SUM(M5:M44)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="N3" s="9">
-        <f>SUM(N5:N44)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="O3" s="9">
-        <f>SUM(O5:O44)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="P3" s="27">
-        <f>SUM(P5:P44)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="Q3" s="9">
-        <f>SUM(Q5:Q44)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R3" s="9">
-        <f>SUM(R5:R44)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="S3" s="9">
-        <f>SUM(S5:S44)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="T3" s="27">
-        <f>SUM(T5:T44)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="U3" s="13">
         <f>SUM(B3:T3)</f>
         <v>745</v>
       </c>
-      <c r="V3" s="13" t="n">
+      <c r="V3" s="13">
         <v>144</v>
       </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="12.75" customHeight="1">
+    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1882,14 +1362,14 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="12.75" customHeight="1">
+    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="n">
+      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
         <v>10</v>
       </c>
       <c r="D5" s="3"/>
@@ -1910,7 +1390,7 @@
       <c r="S5" s="3"/>
       <c r="T5" s="28"/>
       <c r="U5" s="16">
-        <f>SUM(B5:T5)</f>
+        <f t="shared" ref="U5:U44" si="1">SUM(B5:T5)</f>
         <v>20</v>
       </c>
       <c r="V5" s="17"/>
@@ -1919,20 +1399,20 @@
       </c>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" ht="12.75" customHeight="1">
+    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="n">
+      <c r="B6" s="3">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="3">
         <v>12</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="3">
         <v>12</v>
       </c>
       <c r="F6" s="3"/>
@@ -1951,7 +1431,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="28"/>
       <c r="U6" s="16">
-        <f>SUM(B6:T6)</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="V6" s="17"/>
@@ -1960,69 +1440,69 @@
       </c>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="12.75" customHeight="1">
+    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="3">
         <v>2</v>
       </c>
-      <c r="G7" s="23" t="n">
+      <c r="G7" s="23">
         <v>2</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="3">
         <v>2</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="3">
         <v>2</v>
       </c>
-      <c r="J7" s="3" t="n">
+      <c r="J7" s="3">
         <v>2</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="3">
         <v>2</v>
       </c>
-      <c r="L7" s="3" t="n">
+      <c r="L7" s="3">
         <v>2</v>
       </c>
-      <c r="M7" s="3" t="n">
+      <c r="M7" s="3">
         <v>2</v>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="N7" s="3">
         <v>2</v>
       </c>
-      <c r="O7" s="3" t="n">
+      <c r="O7" s="3">
         <v>2</v>
       </c>
-      <c r="P7" s="28" t="n">
+      <c r="P7" s="28">
         <v>2</v>
       </c>
-      <c r="Q7" s="3" t="n">
+      <c r="Q7" s="3">
         <v>2</v>
       </c>
-      <c r="R7" s="3" t="n">
+      <c r="R7" s="3">
         <v>2</v>
       </c>
-      <c r="S7" s="3" t="n">
+      <c r="S7" s="3">
         <v>2</v>
       </c>
-      <c r="T7" s="28" t="n">
+      <c r="T7" s="28">
         <v>2</v>
       </c>
       <c r="U7" s="16">
-        <f>SUM(B7:T7)</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="V7" s="17"/>
@@ -2031,14 +1511,14 @@
       </c>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="12.75" customHeight="1">
+    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7" t="n">
+      <c r="B8" s="7">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
         <v>10</v>
       </c>
       <c r="D8" s="7"/>
@@ -2059,7 +1539,7 @@
       <c r="S8" s="7"/>
       <c r="T8" s="26"/>
       <c r="U8" s="16">
-        <f>SUM(B8:T8)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="V8" s="17">
@@ -2069,15 +1549,15 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="12.75" customHeight="1">
+    <row r="9" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="7">
         <v>5</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="7">
         <v>15</v>
       </c>
       <c r="E9" s="7"/>
@@ -2097,23 +1577,23 @@
       <c r="S9" s="7"/>
       <c r="T9" s="26"/>
       <c r="U9" s="16">
-        <f>SUM(B9:T9)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="V9" s="17"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" ht="12.75" customHeight="1">
+    <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="E10" s="7" t="n">
+      <c r="D10" s="7">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7">
         <v>10</v>
       </c>
       <c r="F10" s="7"/>
@@ -2132,24 +1612,24 @@
       <c r="S10" s="7"/>
       <c r="T10" s="26"/>
       <c r="U10" s="16">
-        <f>SUM(B10:T10)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="V10" s="17"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" ht="12.75" customHeight="1">
+    <row r="11" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="F11" s="7" t="n">
+      <c r="E11" s="7">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7">
         <v>20</v>
       </c>
       <c r="G11" s="21"/>
@@ -2167,14 +1647,14 @@
       <c r="S11" s="7"/>
       <c r="T11" s="26"/>
       <c r="U11" s="16">
-        <f>SUM(B11:T11)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="V11" s="17"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" ht="12.75" customHeight="1">
+    <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
@@ -2182,7 +1662,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7" t="n">
+      <c r="F12" s="7">
         <v>20</v>
       </c>
       <c r="G12" s="21"/>
@@ -2200,14 +1680,14 @@
       <c r="S12" s="7"/>
       <c r="T12" s="26"/>
       <c r="U12" s="16">
-        <f>SUM(B12:T12)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="V12" s="17"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="12.75" customHeight="1">
+    <row r="13" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -2231,7 +1711,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="29"/>
       <c r="U13" s="16">
-        <f>SUM(B13:T13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V13" s="17">
@@ -2241,12 +1721,12 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="12.75" customHeight="1">
+    <row r="14" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="31"/>
-      <c r="C14" s="31" t="n">
+      <c r="C14" s="31">
         <v>5</v>
       </c>
       <c r="D14" s="31"/>
@@ -2267,7 +1747,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="29"/>
       <c r="U14" s="16">
-        <f>SUM(B14:T14)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="V14" s="17"/>
@@ -2281,16 +1761,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="12.75" customHeight="1">
+    <row r="15" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="31" t="n">
-        <v>10</v>
-      </c>
-      <c r="E15" s="31" t="n">
+      <c r="D15" s="31">
+        <v>10</v>
+      </c>
+      <c r="E15" s="31">
         <v>5</v>
       </c>
       <c r="F15" s="31"/>
@@ -2309,7 +1789,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="28"/>
       <c r="U15" s="16">
-        <f>SUM(B15:T15)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="V15" s="17"/>
@@ -2323,17 +1803,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="12.75" customHeight="1">
+    <row r="16" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="31" t="n">
+      <c r="B16" s="31">
         <v>5</v>
       </c>
-      <c r="C16" s="31" t="n">
+      <c r="C16" s="31">
         <v>5</v>
       </c>
-      <c r="D16" s="31" t="n">
+      <c r="D16" s="31">
         <v>10</v>
       </c>
       <c r="E16" s="31"/>
@@ -2353,7 +1833,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="28"/>
       <c r="U16" s="16">
-        <f>SUM(B16:T16)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="V16" s="17"/>
@@ -2363,14 +1843,14 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="12.75" customHeight="1">
+    <row r="17" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="34" t="n">
+      <c r="E17" s="34">
         <v>15</v>
       </c>
       <c r="F17" s="34"/>
@@ -2389,7 +1869,7 @@
       <c r="S17" s="3"/>
       <c r="T17" s="28"/>
       <c r="U17" s="16">
-        <f>SUM(B17:T17)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="V17" s="17"/>
@@ -2399,23 +1879,23 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="12.75" customHeight="1">
+    <row r="18" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="31" t="n">
+      <c r="B18" s="31">
         <v>5</v>
       </c>
-      <c r="C18" s="31" t="n">
+      <c r="C18" s="31">
         <v>5</v>
       </c>
-      <c r="D18" s="31" t="n">
+      <c r="D18" s="31">
         <v>5</v>
       </c>
-      <c r="E18" s="31" t="n">
-        <v>10</v>
-      </c>
-      <c r="F18" s="31" t="n">
+      <c r="E18" s="31">
+        <v>10</v>
+      </c>
+      <c r="F18" s="31">
         <v>5</v>
       </c>
       <c r="G18" s="23"/>
@@ -2433,7 +1913,7 @@
       <c r="S18" s="3"/>
       <c r="T18" s="28"/>
       <c r="U18" s="16">
-        <f>SUM(B18:T18)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="V18" s="17"/>
@@ -2445,17 +1925,17 @@
       </c>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="12.75" customHeight="1">
+    <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="34" t="n">
+      <c r="B19" s="34">
         <v>1</v>
       </c>
-      <c r="C19" s="34" t="n">
+      <c r="C19" s="34">
         <v>15</v>
       </c>
-      <c r="D19" s="34" t="n">
+      <c r="D19" s="34">
         <v>5</v>
       </c>
       <c r="E19" s="34"/>
@@ -2475,7 +1955,7 @@
       <c r="S19" s="3"/>
       <c r="T19" s="28"/>
       <c r="U19" s="16">
-        <f>SUM(B19:T19)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="V19" s="17"/>
@@ -2485,21 +1965,21 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="12.75" customHeight="1">
+    <row r="20" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="31"/>
-      <c r="C20" s="31" t="n">
-        <v>10</v>
-      </c>
-      <c r="D20" s="31" t="n">
-        <v>10</v>
-      </c>
-      <c r="E20" s="31" t="n">
-        <v>10</v>
-      </c>
-      <c r="F20" s="31" t="n">
+      <c r="C20" s="31">
+        <v>10</v>
+      </c>
+      <c r="D20" s="31">
+        <v>10</v>
+      </c>
+      <c r="E20" s="31">
+        <v>10</v>
+      </c>
+      <c r="F20" s="31">
         <v>10</v>
       </c>
       <c r="G20" s="23"/>
@@ -2517,7 +1997,7 @@
       <c r="S20" s="3"/>
       <c r="T20" s="28"/>
       <c r="U20" s="16">
-        <f>SUM(B20:T20)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="V20" s="17"/>
@@ -2525,7 +2005,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="12.75" customHeight="1">
+    <row r="21" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30" t="s">
         <v>31</v>
       </c>
@@ -2533,13 +2013,13 @@
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
-      <c r="F21" s="31" t="n">
-        <v>10</v>
-      </c>
-      <c r="G21" s="23" t="n">
-        <v>10</v>
-      </c>
-      <c r="H21" s="3" t="n">
+      <c r="F21" s="31">
+        <v>10</v>
+      </c>
+      <c r="G21" s="23">
+        <v>10</v>
+      </c>
+      <c r="H21" s="3">
         <v>10</v>
       </c>
       <c r="I21" s="3"/>
@@ -2555,7 +2035,7 @@
       <c r="S21" s="3"/>
       <c r="T21" s="28"/>
       <c r="U21" s="16">
-        <f>SUM(B21:T21)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="V21" s="17"/>
@@ -2563,7 +2043,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="12.75" customHeight="1">
+    <row r="22" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2585,7 +2065,7 @@
       <c r="S22" s="3"/>
       <c r="T22" s="28"/>
       <c r="U22" s="16">
-        <f>SUM(B22:T22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V22" s="17"/>
@@ -2593,7 +2073,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="12.75" customHeight="1">
+    <row r="23" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2615,7 +2095,7 @@
       <c r="S23" s="3"/>
       <c r="T23" s="28"/>
       <c r="U23" s="16">
-        <f>SUM(B23:T23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V23" s="17"/>
@@ -2623,7 +2103,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="12.75" customHeight="1">
+    <row r="24" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2645,7 +2125,7 @@
       <c r="S24" s="3"/>
       <c r="T24" s="28"/>
       <c r="U24" s="16">
-        <f>SUM(B24:T24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V24" s="17"/>
@@ -2653,7 +2133,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="12.75" customHeight="1">
+    <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2675,7 +2155,7 @@
       <c r="S25" s="3"/>
       <c r="T25" s="28"/>
       <c r="U25" s="16">
-        <f>SUM(B25:T25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V25" s="17"/>
@@ -2683,7 +2163,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="12.75" customHeight="1">
+    <row r="26" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2705,7 +2185,7 @@
       <c r="S26" s="3"/>
       <c r="T26" s="28"/>
       <c r="U26" s="16">
-        <f>SUM(B26:T26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V26" s="17"/>
@@ -2713,7 +2193,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="12.75" customHeight="1">
+    <row r="27" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2735,7 +2215,7 @@
       <c r="S27" s="3"/>
       <c r="T27" s="28"/>
       <c r="U27" s="16">
-        <f>SUM(B27:T27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V27" s="17"/>
@@ -2743,7 +2223,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="12.75" customHeight="1">
+    <row r="28" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
@@ -2767,7 +2247,7 @@
       <c r="S28" s="7"/>
       <c r="T28" s="26"/>
       <c r="U28" s="16">
-        <f>SUM(B28:T28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V28" s="17">
@@ -2778,14 +2258,14 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="12.75" customHeight="1">
+    <row r="29" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="7" t="n">
+      <c r="B29" s="7">
         <v>5</v>
       </c>
-      <c r="C29" s="7" t="n">
+      <c r="C29" s="7">
         <v>10</v>
       </c>
       <c r="D29" s="7"/>
@@ -2806,7 +2286,7 @@
       <c r="S29" s="7"/>
       <c r="T29" s="26"/>
       <c r="U29" s="16">
-        <f>SUM(B29:T29)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="V29" s="17"/>
@@ -2816,18 +2296,18 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="12.75" customHeight="1">
+    <row r="30" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="7" t="n">
+      <c r="D30" s="7">
         <v>10</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="21" t="n">
+      <c r="G30" s="21">
         <v>10</v>
       </c>
       <c r="H30" s="7"/>
@@ -2844,7 +2324,7 @@
       <c r="S30" s="7"/>
       <c r="T30" s="26"/>
       <c r="U30" s="16">
-        <f>SUM(B30:T30)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="V30" s="17"/>
@@ -2854,17 +2334,17 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="12.75" customHeight="1">
+    <row r="31" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="7" t="n">
+      <c r="B31" s="7">
         <v>5</v>
       </c>
-      <c r="C31" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D31" s="7" t="n">
+      <c r="C31" s="7">
+        <v>10</v>
+      </c>
+      <c r="D31" s="7">
         <v>10</v>
       </c>
       <c r="E31" s="7"/>
@@ -2884,7 +2364,7 @@
       <c r="S31" s="7"/>
       <c r="T31" s="26"/>
       <c r="U31" s="16">
-        <f>SUM(B31:T31)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="V31" s="17"/>
@@ -2894,7 +2374,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="12.75" customHeight="1">
+    <row r="32" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>37</v>
       </c>
@@ -2902,16 +2382,16 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="G32" s="21" t="n">
+      <c r="F32" s="7">
+        <v>10</v>
+      </c>
+      <c r="G32" s="21">
         <v>15</v>
       </c>
-      <c r="H32" s="7" t="n">
+      <c r="H32" s="7">
         <v>15</v>
       </c>
-      <c r="I32" s="7" t="n">
+      <c r="I32" s="7">
         <v>5</v>
       </c>
       <c r="J32" s="7"/>
@@ -2926,7 +2406,7 @@
       <c r="S32" s="7"/>
       <c r="T32" s="26"/>
       <c r="U32" s="16">
-        <f>SUM(B32:T32)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="V32" s="17"/>
@@ -2936,17 +2416,17 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="12.75" customHeight="1">
+    <row r="33" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="7" t="n">
+      <c r="B33" s="7">
         <v>5</v>
       </c>
-      <c r="C33" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D33" s="7" t="n">
+      <c r="C33" s="7">
+        <v>10</v>
+      </c>
+      <c r="D33" s="7">
         <v>10</v>
       </c>
       <c r="E33" s="7"/>
@@ -2966,7 +2446,7 @@
       <c r="S33" s="7"/>
       <c r="T33" s="26"/>
       <c r="U33" s="16">
-        <f>SUM(B33:T33)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="V33" s="17"/>
@@ -2976,14 +2456,14 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="12.75" customHeight="1">
+    <row r="34" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="7" t="n">
+      <c r="B34" s="7">
         <v>5</v>
       </c>
-      <c r="C34" s="7" t="n">
+      <c r="C34" s="7">
         <v>10</v>
       </c>
       <c r="D34" s="7"/>
@@ -3004,7 +2484,7 @@
       <c r="S34" s="7"/>
       <c r="T34" s="26"/>
       <c r="U34" s="16">
-        <f>SUM(B34:T34)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="V34" s="17"/>
@@ -3014,12 +2494,12 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="12.75" customHeight="1">
+    <row r="35" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="7" t="n">
+      <c r="C35" s="7">
         <v>15</v>
       </c>
       <c r="D35" s="7"/>
@@ -3040,7 +2520,7 @@
       <c r="S35" s="7"/>
       <c r="T35" s="26"/>
       <c r="U35" s="16">
-        <f>SUM(B35:T35)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="V35" s="17"/>
@@ -3050,21 +2530,21 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="12.75" customHeight="1">
+    <row r="36" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="7"/>
-      <c r="C36" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D36" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="E36" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="F36" s="7" t="n">
+      <c r="C36" s="7">
+        <v>10</v>
+      </c>
+      <c r="D36" s="7">
+        <v>10</v>
+      </c>
+      <c r="E36" s="7">
+        <v>10</v>
+      </c>
+      <c r="F36" s="7">
         <v>10</v>
       </c>
       <c r="G36" s="21"/>
@@ -3082,7 +2562,7 @@
       <c r="S36" s="7"/>
       <c r="T36" s="26"/>
       <c r="U36" s="16">
-        <f>SUM(B36:T36)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="V36" s="17"/>
@@ -3092,7 +2572,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="12.75" customHeight="1">
+    <row r="37" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -3114,7 +2594,7 @@
       <c r="S37" s="7"/>
       <c r="T37" s="26"/>
       <c r="U37" s="16">
-        <f>SUM(B37:T37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V37" s="17"/>
@@ -3122,7 +2602,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="12.75" customHeight="1">
+    <row r="38" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>42</v>
       </c>
@@ -3146,7 +2626,7 @@
       <c r="S38" s="3"/>
       <c r="T38" s="28"/>
       <c r="U38" s="16">
-        <f>SUM(B38:T38)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V38" s="17">
@@ -3157,7 +2637,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="12.75" customHeight="1">
+    <row r="39" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>43</v>
       </c>
@@ -3166,13 +2646,13 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="23" t="n">
-        <v>10</v>
-      </c>
-      <c r="H39" s="3" t="n">
+      <c r="G39" s="23">
+        <v>10</v>
+      </c>
+      <c r="H39" s="3">
         <v>20</v>
       </c>
-      <c r="I39" s="3" t="n">
+      <c r="I39" s="3">
         <v>20</v>
       </c>
       <c r="J39" s="3"/>
@@ -3187,7 +2667,7 @@
       <c r="S39" s="3"/>
       <c r="T39" s="28"/>
       <c r="U39" s="16">
-        <f>SUM(B39:T39)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="V39" s="17"/>
@@ -3197,7 +2677,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="12.75" customHeight="1">
+    <row r="40" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>45</v>
       </c>
@@ -3209,10 +2689,10 @@
       <c r="G40" s="23"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="3" t="n">
+      <c r="J40" s="3">
         <v>30</v>
       </c>
-      <c r="K40" s="3" t="n">
+      <c r="K40" s="3">
         <v>10</v>
       </c>
       <c r="L40" s="3"/>
@@ -3225,7 +2705,7 @@
       <c r="S40" s="3"/>
       <c r="T40" s="28"/>
       <c r="U40" s="16">
-        <f>SUM(B40:T40)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="V40" s="17"/>
@@ -3235,7 +2715,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="12.75" customHeight="1">
+    <row r="41" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>46</v>
       </c>
@@ -3248,10 +2728,10 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
-      <c r="K41" s="3" t="n">
+      <c r="K41" s="3">
         <v>5</v>
       </c>
-      <c r="L41" s="3" t="n">
+      <c r="L41" s="3">
         <v>10</v>
       </c>
       <c r="M41" s="3"/>
@@ -3263,7 +2743,7 @@
       <c r="S41" s="3"/>
       <c r="T41" s="28"/>
       <c r="U41" s="16">
-        <f>SUM(B41:T41)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="V41" s="17"/>
@@ -3273,7 +2753,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="12.75" customHeight="1">
+    <row r="42" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>47</v>
       </c>
@@ -3288,7 +2768,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
-      <c r="M42" s="3" t="n">
+      <c r="M42" s="3">
         <v>15</v>
       </c>
       <c r="N42" s="3"/>
@@ -3299,7 +2779,7 @@
       <c r="S42" s="3"/>
       <c r="T42" s="28"/>
       <c r="U42" s="16">
-        <f>SUM(B42:T42)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="V42" s="17"/>
@@ -3309,7 +2789,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="12.75" customHeight="1">
+    <row r="43" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>48</v>
       </c>
@@ -3325,10 +2805,10 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
-      <c r="N43" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="O43" s="3" t="n">
+      <c r="N43" s="3">
+        <v>10</v>
+      </c>
+      <c r="O43" s="3">
         <v>5</v>
       </c>
       <c r="P43" s="28"/>
@@ -3337,7 +2817,7 @@
       <c r="S43" s="3"/>
       <c r="T43" s="28"/>
       <c r="U43" s="16">
-        <f>SUM(B43:T43)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="V43" s="17"/>
@@ -3347,7 +2827,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="12.75" customHeight="1">
+    <row r="44" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>49</v>
       </c>
@@ -3364,10 +2844,10 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
-      <c r="O44" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="P44" s="28" t="n">
+      <c r="O44" s="3">
+        <v>10</v>
+      </c>
+      <c r="P44" s="28">
         <v>10</v>
       </c>
       <c r="Q44" s="3"/>
@@ -3375,7 +2855,7 @@
       <c r="S44" s="3"/>
       <c r="T44" s="28"/>
       <c r="U44" s="16">
-        <f>SUM(B44:T44)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="V44" s="17"/>
@@ -3385,7 +2865,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:22" ht="12.75" customHeight="1">
+    <row r="45" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -3409,11 +2889,11 @@
       <c r="U45" s="16"/>
       <c r="V45" s="17"/>
     </row>
-    <row r="46" spans="21:22" ht="15.75" customHeight="1">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U46" s="16"/>
       <c r="V46" s="17"/>
     </row>
-    <row r="47" spans="21:22" ht="13.50" customHeight="1">
+    <row r="47" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U47" s="18">
         <f>SUM(U4:U44)</f>
         <v>745</v>
@@ -3424,29 +2904,19 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="W1:Y1006" type="list" operator="between" errorStyle="stop" allowBlank="1" view="0">
-      <formula1>Contacts!$C:$C</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1574120984" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1574120984" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1574120984" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>Contacts!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>W1:Y1006</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1574120984" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
@@ -3458,25 +2928,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
-    <outlinePr summaryRight="0" summaryBelow="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="13" defaultColWidth="14.423423" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="39.855856" customWidth="1"/>
-    <col min="4" max="4" width="23.144144" customWidth="1"/>
-    <col min="7" max="7" width="21.288288" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -3499,7 +2969,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -3513,7 +2983,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -3527,7 +2997,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -3541,7 +3011,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
@@ -3555,7 +3025,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
@@ -3569,7 +3039,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
@@ -3583,7 +3053,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
@@ -3597,7 +3067,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>75</v>
       </c>
@@ -3611,7 +3081,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
@@ -3625,7 +3095,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>82</v>
       </c>
@@ -3639,7 +3109,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>86</v>
       </c>
@@ -3653,7 +3123,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>89</v>
       </c>
@@ -3667,7 +3137,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>91</v>
       </c>
@@ -3681,7 +3151,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>94</v>
       </c>
@@ -3695,7 +3165,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
@@ -3709,7 +3179,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>100</v>
       </c>
@@ -3723,7 +3193,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>103</v>
       </c>
@@ -3737,7 +3207,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>105</v>
       </c>
@@ -3751,7 +3221,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>108</v>
       </c>
@@ -3767,27 +3237,12 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="D1:D999" type="list" operator="between" errorStyle="stop" allowBlank="1" view="0">
+    <dataValidation type="list" allowBlank="1" sqref="D1:D999" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1574120984" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1574120984" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1574120984" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1574120984" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
